--- a/Data Elnorte Autos.xlsx
+++ b/Data Elnorte Autos.xlsx
@@ -1,24 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoo.guajardoo/Documents/VS Code Studio/Python VS/ws4bs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB3ECD1F-E3A7-CD4A-A92F-BF3A9353AA86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557E5487-6A95-A441-850D-57398C58DB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14500" xr2:uid="{3B3CC03A-2253-1D44-8331-9410B1DF1BCE}"/>
+    <workbookView xWindow="25600" yWindow="-1600" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{3B3CC03A-2253-1D44-8331-9410B1DF1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="por vendedor" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'por vendedor'!$A$2:$F$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$2:$F$50</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'por vendedor'!$D$14:$D$16</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'por vendedor'!$D$26:$D$36</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">'por vendedor'!$D$14:$D$16</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">'por vendedor'!$D$26:$D$36</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">'por vendedor'!$D$37:$D$50</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">'por vendedor'!$E$14:$E$16</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">'por vendedor'!$D$14:$D$16</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">'por vendedor'!$D$26:$D$36</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">'por vendedor'!$D$37:$D$50</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">'por vendedor'!$E$14:$E$16</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$C$3:$C$50</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$D$3:$D$50</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'por vendedor'!$D$37:$D$50</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'por vendedor'!$E$14:$E$16</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'por vendedor'!$C$3:$C$50</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'por vendedor'!$D$3:$D$50</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'por vendedor'!$D$14:$D$16</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'por vendedor'!$D$26:$D$36</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'por vendedor'!$D$37:$D$50</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">'por vendedor'!$E$14:$E$16</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="76">
   <si>
     <r>
       <t>ACURA</t>
@@ -528,12 +553,138 @@
   <si>
     <t>Cant Int</t>
   </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Ibiza 5D Blitz</t>
+  </si>
+  <si>
+    <t>https://www.avisosdeocasion.com/Detalle-Avisos.aspx?SeccionAvisos2=Busqueda&amp;SeccionAvisos=Busqueda&amp;PlazaBusqueda=2&amp;ClaveAviso=31366502&amp;Plaza=2&amp;n=Buqeuda-por-Palabra&amp;Imagenes=8&amp;NumClasif=0&amp;NumSubClasif=35&amp;ChbFoto=0&amp;chkDesc=1&amp;palabra=ibiza&amp;ChbVideo=0&amp;OrderTmp=2&amp;txtagrupados1=&amp;fotosempleos=1</t>
+  </si>
+  <si>
+    <t>IBIZA Style Urban Plus</t>
+  </si>
+  <si>
+    <t>IBIZA REFERENCE</t>
+  </si>
+  <si>
+    <t>IBIZA SC FR</t>
+  </si>
+  <si>
+    <t>IBIZA</t>
+  </si>
+  <si>
+    <t>IBIZA 5D STYLE REFERENCE</t>
+  </si>
+  <si>
+    <t>IBIZA ITECH</t>
+  </si>
+  <si>
+    <t>IBIZA 5D Xcellence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibiza Style </t>
+  </si>
+  <si>
+    <t>Style coupe</t>
+  </si>
+  <si>
+    <t>fr coupe</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>kavak</t>
+  </si>
+  <si>
+    <t>Style 1.2T</t>
+  </si>
+  <si>
+    <t>Ibza Style 1.2T</t>
+  </si>
+  <si>
+    <t>Seat Style 1.2T</t>
+  </si>
+  <si>
+    <t>Style Connect 1.6I</t>
+  </si>
+  <si>
+    <t>Ibiza Blitz 1.6l</t>
+  </si>
+  <si>
+    <t>Ibiza Style 1.6l</t>
+  </si>
+  <si>
+    <t>Style 1.6l</t>
+  </si>
+  <si>
+    <t>elnorte</t>
+  </si>
+  <si>
+    <t>Fuente</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>mercadolibre</t>
+  </si>
+  <si>
+    <t>fr coupe 1.4</t>
+  </si>
+  <si>
+    <t>2.0 Style Mt Coupe</t>
+  </si>
+  <si>
+    <t>Ibiza Reference 5p Mt</t>
+  </si>
+  <si>
+    <t>Ibiza 2.0 Sytle Plus</t>
+  </si>
+  <si>
+    <t>1.2 Turbi Blitz</t>
+  </si>
+  <si>
+    <t>5p reference 2.0</t>
+  </si>
+  <si>
+    <t>1.2 Fr Turbo</t>
+  </si>
+  <si>
+    <t>Ibiza Reference 2.0</t>
+  </si>
+  <si>
+    <t>Reference 2.0</t>
+  </si>
+  <si>
+    <t>Ibiza 2.0 Lts Std Blitz</t>
+  </si>
+  <si>
+    <t>ibiza</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -554,13 +705,36 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lato Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Lato Regular"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -575,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -592,6 +766,18 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,6 +793,1733 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Facebook</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'por vendedor'!$D$14:$D$36</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>108000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>135000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>138000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>139500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>140000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>149900</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>149900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>165000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B94-4B47-9A28-123D10F0473C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Kavak</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'por vendedor'!$D$37:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>163999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>189999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>214999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B94-4B47-9A28-123D10F0473C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Mercadolibre</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'por vendedor'!$D$40:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>96000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>124000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>145000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>146900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>148999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>149000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>163999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>189999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B94-4B47-9A28-123D10F0473C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1630268144"/>
+        <c:axId val="1582044176"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1630268144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1582044176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1582044176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1630268144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-MX"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.18</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.19</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Chart Title</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1" compatLnSpc="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Chart Title</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{AC54356A-5984-4143-911E-C2842AB91E12}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>659423</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>157285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>249115</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28331</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF9D1FE4-B040-44D7-9633-26EBDB5D9D5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>307730</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>176823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>595922</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68385</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Chart 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3818D0B5-5C62-CE30-5EC0-BE4B7513B7F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9070730" y="406400"/>
+              <a:ext cx="6066692" cy="2303585"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -908,17 +2821,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B62C28-5733-8A41-B96D-72461831505B}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -929,768 +2842,768 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f>RIGHT(A2,(LEN(A2)-C2))</f>
+        <f t="shared" ref="B2:B33" si="0">RIGHT(A2,(LEN(A2)-C2))</f>
         <v>89)</v>
       </c>
       <c r="C2" s="3">
-        <f>FIND("(",A2)</f>
+        <f t="shared" ref="C2:C33" si="1">FIND("(",A2)</f>
         <v>11</v>
       </c>
       <c r="D2" s="3">
-        <f>FIND(")",B2)</f>
+        <f t="shared" ref="D2:D33" si="2">FIND(")",B2)</f>
         <v>3</v>
       </c>
       <c r="E2" s="4" t="str">
-        <f>LEFT(B2,D2-1)</f>
+        <f t="shared" ref="E2:E33" si="3">LEFT(B2,D2-1)</f>
         <v>89</v>
       </c>
       <c r="F2" s="5">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B3" s="3" t="str">
-        <f>RIGHT(A3,(LEN(A3)-C3))</f>
+        <f t="shared" si="0"/>
         <v>77)</v>
       </c>
       <c r="C3" s="3">
-        <f>FIND("(",A3)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D3" s="3">
-        <f>FIND(")",B3)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E3" s="4" t="str">
-        <f>LEFT(B3,D3-1)</f>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
       <c r="F3" s="5">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="str">
-        <f>RIGHT(A4,(LEN(A4)-C4))</f>
+        <f t="shared" si="0"/>
         <v>75)</v>
       </c>
       <c r="C4" s="3">
-        <f>FIND("(",A4)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D4" s="3">
-        <f>FIND(")",B4)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E4" s="4" t="str">
-        <f>LEFT(B4,D4-1)</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="F4" s="5">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="3" t="str">
-        <f>RIGHT(A5,(LEN(A5)-C5))</f>
+        <f t="shared" si="0"/>
         <v>41)</v>
       </c>
       <c r="C5" s="3">
-        <f>FIND("(",A5)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D5" s="3">
-        <f>FIND(")",B5)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E5" s="4" t="str">
-        <f>LEFT(B5,D5-1)</f>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="F5" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="3" t="str">
-        <f>RIGHT(A6,(LEN(A6)-C6))</f>
+        <f t="shared" si="0"/>
         <v>37)</v>
       </c>
       <c r="C6" s="3">
-        <f>FIND("(",A6)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D6" s="3">
-        <f>FIND(")",B6)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E6" s="4" t="str">
-        <f>LEFT(B6,D6-1)</f>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="F6" s="5">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="3" t="str">
-        <f>RIGHT(A7,(LEN(A7)-C7))</f>
+        <f t="shared" si="0"/>
         <v>36)</v>
       </c>
       <c r="C7" s="3">
-        <f>FIND("(",A7)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D7" s="3">
-        <f>FIND(")",B7)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E7" s="4" t="str">
-        <f>LEFT(B7,D7-1)</f>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="F7" s="5">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="3" t="str">
-        <f>RIGHT(A8,(LEN(A8)-C8))</f>
+        <f t="shared" si="0"/>
         <v>31)</v>
       </c>
       <c r="C8" s="3">
-        <f>FIND("(",A8)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D8" s="3">
-        <f>FIND(")",B8)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E8" s="4" t="str">
-        <f>LEFT(B8,D8-1)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="F8" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="3" t="str">
-        <f>RIGHT(A9,(LEN(A9)-C9))</f>
+        <f t="shared" si="0"/>
         <v>31)</v>
       </c>
       <c r="C9" s="3">
-        <f>FIND("(",A9)</f>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="D9" s="3">
-        <f>FIND(")",B9)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E9" s="4" t="str">
-        <f>LEFT(B9,D9-1)</f>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="F9" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="3" t="str">
-        <f>RIGHT(A10,(LEN(A10)-C10))</f>
+        <f t="shared" si="0"/>
         <v>30)</v>
       </c>
       <c r="C10" s="3">
-        <f>FIND("(",A10)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <f>FIND(")",B10)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E10" s="4" t="str">
-        <f>LEFT(B10,D10-1)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="F10" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="3" t="str">
-        <f>RIGHT(A11,(LEN(A11)-C11))</f>
+        <f t="shared" si="0"/>
         <v>29)</v>
       </c>
       <c r="C11" s="3">
-        <f>FIND("(",A11)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D11" s="3">
-        <f>FIND(")",B11)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E11" s="4" t="str">
-        <f>LEFT(B11,D11-1)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="F11" s="5">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="str">
-        <f>RIGHT(A12,(LEN(A12)-C12))</f>
+        <f t="shared" si="0"/>
         <v>26)</v>
       </c>
       <c r="C12" s="3">
-        <f>FIND("(",A12)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D12" s="3">
-        <f>FIND(")",B12)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E12" s="4" t="str">
-        <f>LEFT(B12,D12-1)</f>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="F12" s="5">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="3" t="str">
-        <f>RIGHT(A13,(LEN(A13)-C13))</f>
+        <f t="shared" si="0"/>
         <v>19)</v>
       </c>
       <c r="C13" s="3">
-        <f>FIND("(",A13)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D13" s="3">
-        <f>FIND(")",B13)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E13" s="4" t="str">
-        <f>LEFT(B13,D13-1)</f>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="F13" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="3" t="str">
-        <f>RIGHT(A14,(LEN(A14)-C14))</f>
+        <f t="shared" si="0"/>
         <v>12)</v>
       </c>
       <c r="C14" s="3">
-        <f>FIND("(",A14)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D14" s="3">
-        <f>FIND(")",B14)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E14" s="4" t="str">
-        <f>LEFT(B14,D14-1)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="F14" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="3" t="str">
-        <f>RIGHT(A15,(LEN(A15)-C15))</f>
+        <f t="shared" si="0"/>
         <v>9)</v>
       </c>
       <c r="C15" s="3">
-        <f>FIND("(",A15)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D15" s="3">
-        <f>FIND(")",B15)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E15" s="4" t="str">
-        <f>LEFT(B15,D15-1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F15" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" s="3" t="str">
-        <f>RIGHT(A16,(LEN(A16)-C16))</f>
+        <f t="shared" si="0"/>
         <v>9)</v>
       </c>
       <c r="C16" s="3">
-        <f>FIND("(",A16)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D16" s="3">
-        <f>FIND(")",B16)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E16" s="4" t="str">
-        <f>LEFT(B16,D16-1)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="F16" s="5">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="3" t="str">
-        <f>RIGHT(A17,(LEN(A17)-C17))</f>
+        <f t="shared" si="0"/>
         <v>8)</v>
       </c>
       <c r="C17" s="3">
-        <f>FIND("(",A17)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D17" s="3">
-        <f>FIND(")",B17)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E17" s="4" t="str">
-        <f>LEFT(B17,D17-1)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="F17" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="3" t="str">
-        <f>RIGHT(A18,(LEN(A18)-C18))</f>
+        <f t="shared" si="0"/>
         <v>7)</v>
       </c>
       <c r="C18" s="3">
-        <f>FIND("(",A18)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D18" s="3">
-        <f>FIND(")",B18)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E18" s="4" t="str">
-        <f>LEFT(B18,D18-1)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="F18" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="str">
-        <f>RIGHT(A19,(LEN(A19)-C19))</f>
+        <f t="shared" si="0"/>
         <v>6)</v>
       </c>
       <c r="C19" s="3">
-        <f>FIND("(",A19)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D19" s="3">
-        <f>FIND(")",B19)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E19" s="4" t="str">
-        <f>LEFT(B19,D19-1)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="F19" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="3" t="str">
-        <f>RIGHT(A20,(LEN(A20)-C20))</f>
+        <f t="shared" si="0"/>
         <v>5)</v>
       </c>
       <c r="C20" s="3">
-        <f>FIND("(",A20)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D20" s="3">
-        <f>FIND(")",B20)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E20" s="4" t="str">
-        <f>LEFT(B20,D20-1)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="F20" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="str">
-        <f>RIGHT(A21,(LEN(A21)-C21))</f>
+        <f t="shared" si="0"/>
         <v>4)</v>
       </c>
       <c r="C21" s="3">
-        <f>FIND("(",A21)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D21" s="3">
-        <f>FIND(")",B21)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E21" s="4" t="str">
-        <f>LEFT(B21,D21-1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F21" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="3" t="str">
-        <f>RIGHT(A22,(LEN(A22)-C22))</f>
+        <f t="shared" si="0"/>
         <v>4)</v>
       </c>
       <c r="C22" s="3">
-        <f>FIND("(",A22)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D22" s="3">
-        <f>FIND(")",B22)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E22" s="4" t="str">
-        <f>LEFT(B22,D22-1)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="F22" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="3" t="str">
-        <f>RIGHT(A23,(LEN(A23)-C23))</f>
+        <f t="shared" si="0"/>
         <v>3)</v>
       </c>
       <c r="C23" s="3">
-        <f>FIND("(",A23)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D23" s="3">
-        <f>FIND(")",B23)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E23" s="4" t="str">
-        <f>LEFT(B23,D23-1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F23" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="3" t="str">
-        <f>RIGHT(A24,(LEN(A24)-C24))</f>
+        <f t="shared" si="0"/>
         <v>3)</v>
       </c>
       <c r="C24" s="3">
-        <f>FIND("(",A24)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D24" s="3">
-        <f>FIND(")",B24)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E24" s="4" t="str">
-        <f>LEFT(B24,D24-1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F24" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="str">
-        <f>RIGHT(A25,(LEN(A25)-C25))</f>
+        <f t="shared" si="0"/>
         <v>3)</v>
       </c>
       <c r="C25" s="3">
-        <f>FIND("(",A25)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D25" s="3">
-        <f>FIND(")",B25)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E25" s="4" t="str">
-        <f>LEFT(B25,D25-1)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="F25" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="3" t="str">
-        <f>RIGHT(A26,(LEN(A26)-C26))</f>
+        <f t="shared" si="0"/>
         <v>2)</v>
       </c>
       <c r="C26" s="3">
-        <f>FIND("(",A26)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D26" s="3">
-        <f>FIND(")",B26)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E26" s="4" t="str">
-        <f>LEFT(B26,D26-1)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="F26" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B27" s="3" t="str">
-        <f>RIGHT(A27,(LEN(A27)-C27))</f>
+        <f t="shared" si="0"/>
         <v>1)</v>
       </c>
       <c r="C27" s="3">
-        <f>FIND("(",A27)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D27" s="3">
-        <f>FIND(")",B27)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E27" s="4" t="str">
-        <f>LEFT(B27,D27-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F27" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B28" s="3" t="str">
-        <f>RIGHT(A28,(LEN(A28)-C28))</f>
+        <f t="shared" si="0"/>
         <v>1)</v>
       </c>
       <c r="C28" s="3">
-        <f>FIND("(",A28)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D28" s="3">
-        <f>FIND(")",B28)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E28" s="4" t="str">
-        <f>LEFT(B28,D28-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F28" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="3" t="str">
-        <f>RIGHT(A29,(LEN(A29)-C29))</f>
+        <f t="shared" si="0"/>
         <v>1)</v>
       </c>
       <c r="C29" s="3">
-        <f>FIND("(",A29)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D29" s="3">
-        <f>FIND(")",B29)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E29" s="4" t="str">
-        <f>LEFT(B29,D29-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F29" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B30" s="3" t="str">
-        <f>RIGHT(A30,(LEN(A30)-C30))</f>
+        <f t="shared" si="0"/>
         <v>1)</v>
       </c>
       <c r="C30" s="3">
-        <f>FIND("(",A30)</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D30" s="3">
-        <f>FIND(")",B30)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E30" s="4" t="str">
-        <f>LEFT(B30,D30-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F30" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="3" t="str">
-        <f>RIGHT(A31,(LEN(A31)-C31))</f>
+        <f t="shared" si="0"/>
         <v>1)</v>
       </c>
       <c r="C31" s="3">
-        <f>FIND("(",A31)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D31" s="3">
-        <f>FIND(")",B31)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E31" s="4" t="str">
-        <f>LEFT(B31,D31-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F31" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B32" s="3" t="str">
-        <f>RIGHT(A32,(LEN(A32)-C32))</f>
+        <f t="shared" si="0"/>
         <v>1)</v>
       </c>
       <c r="C32" s="3">
-        <f>FIND("(",A32)</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D32" s="3">
-        <f>FIND(")",B32)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E32" s="4" t="str">
-        <f>LEFT(B32,D32-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F32" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="str">
-        <f>RIGHT(A33,(LEN(A33)-C33))</f>
+        <f t="shared" si="0"/>
         <v>1)</v>
       </c>
       <c r="C33" s="3">
-        <f>FIND("(",A33)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D33" s="3">
-        <f>FIND(")",B33)</f>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E33" s="4" t="str">
-        <f>LEFT(B33,D33-1)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F33" s="5">
@@ -1705,4 +3618,1752 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C6EA10-D0C5-7F43-BE7F-E45A1CEF0E41}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="23.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="6" hidden="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D3" s="10">
+        <v>119000</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" hidden="1">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2019</v>
+      </c>
+      <c r="D4" s="10">
+        <v>309000</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="10">
+        <v>239000</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2018</v>
+      </c>
+      <c r="D6" s="10">
+        <v>297000</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2015</v>
+      </c>
+      <c r="D7" s="10">
+        <v>173000</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2014</v>
+      </c>
+      <c r="D8" s="10">
+        <v>152000</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2019</v>
+      </c>
+      <c r="D9" s="10">
+        <v>275000</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2017</v>
+      </c>
+      <c r="D10" s="10">
+        <v>190000</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2014</v>
+      </c>
+      <c r="D11" s="10">
+        <v>169500</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2020</v>
+      </c>
+      <c r="D12" s="10">
+        <v>298000</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2021</v>
+      </c>
+      <c r="D13" s="10">
+        <v>295000</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6">
+        <v>41</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D14" s="10">
+        <v>72000</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6">
+        <v>35</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D15" s="10">
+        <v>90000</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6">
+        <v>46</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D16" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="6">
+        <v>37</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D17" s="10">
+        <v>108000</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="6">
+        <v>48</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D18" s="10">
+        <v>125000</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="6">
+        <v>36</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D19" s="10">
+        <v>135000</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="6">
+        <v>39</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D20" s="10">
+        <v>138000</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="6">
+        <v>40</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D21" s="10">
+        <v>139500</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="6">
+        <v>38</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D22" s="10">
+        <v>140000</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="6">
+        <v>43</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D23" s="10">
+        <v>145000</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="6">
+        <v>44</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D24" s="10">
+        <v>149900</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="6">
+        <v>47</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D25" s="10">
+        <v>149900</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6">
+        <v>42</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D26" s="10">
+        <v>165000</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" hidden="1">
+      <c r="A27" s="6">
+        <v>45</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2014</v>
+      </c>
+      <c r="D27" s="10">
+        <v>160000</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1">
+      <c r="A28" s="6">
+        <v>15</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2014</v>
+      </c>
+      <c r="D28" s="10">
+        <v>177999</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" hidden="1">
+      <c r="A29" s="6">
+        <v>16</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="8">
+        <v>2015</v>
+      </c>
+      <c r="D29" s="10">
+        <v>199999</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1">
+      <c r="A30" s="6">
+        <v>17</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2015</v>
+      </c>
+      <c r="D30" s="10">
+        <v>193999</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1">
+      <c r="A31" s="6">
+        <v>18</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D31" s="10">
+        <v>201999</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1">
+      <c r="A32" s="6">
+        <v>19</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D32" s="10">
+        <v>229999</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1">
+      <c r="A33" s="6">
+        <v>20</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D33" s="10">
+        <v>199999</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1">
+      <c r="A34" s="6">
+        <v>21</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D34" s="10">
+        <v>212999</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1">
+      <c r="A35" s="6">
+        <v>22</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D35" s="10">
+        <v>217999</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1">
+      <c r="A36" s="6">
+        <v>23</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D36" s="10">
+        <v>220999</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="6">
+        <v>12</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D37" s="10">
+        <v>163999</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="6">
+        <v>14</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D38" s="10">
+        <v>189999</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="6">
+        <v>13</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D39" s="10">
+        <v>214999</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1">
+      <c r="A40" s="6">
+        <v>26</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="8">
+        <v>2015</v>
+      </c>
+      <c r="D40" s="10">
+        <v>169900</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="6">
+        <v>32</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D41" s="10">
+        <v>96000</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="6">
+        <v>33</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D42" s="10">
+        <v>124000</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="6">
+        <v>24</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D43" s="10">
+        <v>134900</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="6">
+        <v>34</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D44" s="10">
+        <v>140500</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="6">
+        <v>27</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D45" s="10">
+        <v>145000</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="6">
+        <v>28</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D46" s="10">
+        <v>146900</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="6">
+        <v>29</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D47" s="10">
+        <v>148999</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="6">
+        <v>30</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D48" s="10">
+        <v>149000</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="6">
+        <v>25</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D49" s="10">
+        <v>163999</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="6">
+        <v>31</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D50" s="10">
+        <v>189999</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:F50" xr:uid="{51F5B38B-E3E0-9645-8CD9-B8671112CBB1}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2013"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F50">
+      <sortCondition ref="F2:F50"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F5B38B-E3E0-9645-8CD9-B8671112CBB1}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A2:F50"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="23.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="6" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2011</v>
+      </c>
+      <c r="D3" s="10">
+        <v>119000</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" hidden="1">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="8">
+        <v>2019</v>
+      </c>
+      <c r="D4" s="10">
+        <v>309000</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" hidden="1">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2018</v>
+      </c>
+      <c r="D5" s="10">
+        <v>239000</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" hidden="1">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2018</v>
+      </c>
+      <c r="D6" s="10">
+        <v>297000</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2015</v>
+      </c>
+      <c r="D7" s="10">
+        <v>173000</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" hidden="1">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="8">
+        <v>2014</v>
+      </c>
+      <c r="D8" s="10">
+        <v>152000</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" hidden="1">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2019</v>
+      </c>
+      <c r="D9" s="10">
+        <v>275000</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" hidden="1">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2017</v>
+      </c>
+      <c r="D10" s="10">
+        <v>190000</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" hidden="1">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2014</v>
+      </c>
+      <c r="D11" s="10">
+        <v>169500</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2020</v>
+      </c>
+      <c r="D12" s="10">
+        <v>298000</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" hidden="1">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="8">
+        <v>2021</v>
+      </c>
+      <c r="D13" s="10">
+        <v>295000</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D14" s="10">
+        <v>163999</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D15" s="10">
+        <v>214999</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D16" s="10">
+        <v>189999</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" hidden="1">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="8">
+        <v>2014</v>
+      </c>
+      <c r="D17" s="10">
+        <v>177999</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2015</v>
+      </c>
+      <c r="D18" s="10">
+        <v>199999</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" hidden="1">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2015</v>
+      </c>
+      <c r="D19" s="10">
+        <v>193999</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" hidden="1">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D20" s="10">
+        <v>201999</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" hidden="1">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D21" s="10">
+        <v>229999</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" hidden="1">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D22" s="10">
+        <v>199999</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" hidden="1">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D23" s="10">
+        <v>212999</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" hidden="1">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D24" s="10">
+        <v>217999</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" s="8">
+        <v>2016</v>
+      </c>
+      <c r="D25" s="10">
+        <v>220999</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D26" s="10">
+        <v>134900</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D27" s="10">
+        <v>163999</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" hidden="1">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="8">
+        <v>2015</v>
+      </c>
+      <c r="D28" s="10">
+        <v>169900</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D29" s="10">
+        <v>145000</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D30" s="10">
+        <v>146900</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D31" s="10">
+        <v>148999</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D32" s="10">
+        <v>149000</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="6">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D33" s="10">
+        <v>189999</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D34" s="10">
+        <v>96000</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="6">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D35" s="10">
+        <v>124000</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="6">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D36" s="10">
+        <v>140500</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="6">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D37" s="10">
+        <v>90000</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="6">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D38" s="10">
+        <v>135000</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="6">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D39" s="10">
+        <v>108000</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="6">
+        <v>38</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D40" s="10">
+        <v>140000</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="6">
+        <v>39</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D41" s="10">
+        <v>138000</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="6">
+        <v>40</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D42" s="10">
+        <v>139500</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="6">
+        <v>41</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D43" s="10">
+        <v>72000</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="6">
+        <v>42</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D44" s="10">
+        <v>165000</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="6">
+        <v>43</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D45" s="10">
+        <v>145000</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="6">
+        <v>44</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D46" s="10">
+        <v>149900</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1">
+      <c r="A47" s="6">
+        <v>45</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C47" s="8">
+        <v>2014</v>
+      </c>
+      <c r="D47" s="10">
+        <v>160000</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="6">
+        <v>46</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D48" s="10">
+        <v>100000</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="6">
+        <v>47</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D49" s="10">
+        <v>149900</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="6">
+        <v>48</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="8">
+        <v>2013</v>
+      </c>
+      <c r="D50" s="10">
+        <v>125000</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:F50" xr:uid="{51F5B38B-E3E0-9645-8CD9-B8671112CBB1}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2013"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F50">
+      <sortCondition ref="A2:A50"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data Elnorte Autos.xlsx
+++ b/Data Elnorte Autos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diegoo.guajardoo/Documents/VS Code Studio/Python VS/ws4bs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557E5487-6A95-A441-850D-57398C58DB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA3E3BB-8224-B842-9DBF-2D192DAA24E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-1600" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{3B3CC03A-2253-1D44-8331-9410B1DF1BCE}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" activeTab="1" xr2:uid="{3B3CC03A-2253-1D44-8331-9410B1DF1BCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,29 +21,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'por vendedor'!$A$2:$F$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$2:$F$50</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">'por vendedor'!$D$14:$D$16</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'por vendedor'!$D$26:$D$36</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'por vendedor'!$D$14:$D$16</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'por vendedor'!$D$26:$D$36</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'por vendedor'!$D$37:$D$50</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'por vendedor'!$E$14:$E$16</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'por vendedor'!$D$14:$D$16</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'por vendedor'!$D$26:$D$36</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'por vendedor'!$D$37:$D$50</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">'por vendedor'!$E$14:$E$16</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet2!$C$3:$C$50</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet2!$D$3:$D$50</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'por vendedor'!$D$37:$D$50</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'por vendedor'!$E$14:$E$16</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'por vendedor'!$C$3:$C$50</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'por vendedor'!$D$3:$D$50</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'por vendedor'!$D$14:$D$16</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'por vendedor'!$D$26:$D$36</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'por vendedor'!$D$37:$D$50</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'por vendedor'!$E$14:$E$16</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$C$3:$C$50</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$D$3:$D$50</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1210,10 +1191,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -3625,8 +3606,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A2:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4485,7 +4466,7 @@
         <filter val="2013"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F50">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A14:F50">
       <sortCondition ref="F2:F50"/>
     </sortState>
   </autoFilter>
